--- a/Jogos_do_Dia/2023-09-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>5.19</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -623,10 +623,10 @@
         <v>2.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
         <v>1.53</v>
@@ -696,40 +696,40 @@
         <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>1.24</v>
@@ -759,7 +759,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -771,86 +771,86 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>PAS Giannina</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -862,80 +862,80 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PAS Giannina</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -987,10 +987,10 @@
         <v>2.75</v>
       </c>
       <c r="N6" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>5.14</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1078,10 +1078,10 @@
         <v>4.8</v>
       </c>
       <c r="N7" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="O7" t="n">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="P7" t="n">
         <v>1.23</v>
@@ -1148,37 +1148,37 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="R8" t="n">
         <v>1.83</v>
@@ -1242,10 +1242,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1260,10 +1260,10 @@
         <v>4.89</v>
       </c>
       <c r="N9" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="P9" t="n">
         <v>1.27</v>
@@ -1305,7 +1305,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1317,86 +1317,86 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>RWDM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Union Saint-Gilloise</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>4.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.85</v>
+        <v>1.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.16</v>
+        <v>1.79</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1408,86 +1408,86 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.24</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1499,86 +1499,86 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RWDM</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="O12" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="U12" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.48</v>
+        <v>2.12</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.79</v>
+        <v>1.16</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1590,86 +1590,86 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.03</v>
+        <v>1.57</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.25</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1681,86 +1681,86 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>2.71</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="U14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.49</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1772,80 +1772,80 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>3.68</v>
       </c>
       <c r="J15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="U15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="V15" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.16</v>
+        <v>0.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="16">
@@ -1867,82 +1867,82 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Jönköpings Södra</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.19</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.19</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="O16" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="P16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.28</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.39</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -1954,86 +1954,86 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>3.04</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.22</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>2.04</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>4.12</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="O17" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="T17" t="n">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V17" t="n">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2045,86 +2045,86 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q18" t="n">
         <v>3.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.85</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.57</v>
       </c>
-      <c r="W18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AA18" t="n">
-        <v>3.21</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2136,86 +2136,86 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="U19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.93</v>
+        <v>1.13</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.76</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2227,86 +2227,86 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jönköpings Södra</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
         <v>3.4</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.4</v>
-      </c>
       <c r="N20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.7</v>
       </c>
-      <c r="O20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="U20" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2318,86 +2318,86 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Lokomotiv Sofia 1929</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.45</v>
+        <v>1.24</v>
       </c>
       <c r="H21" t="n">
-        <v>3.55</v>
+        <v>5.27</v>
       </c>
       <c r="I21" t="n">
-        <v>1.65</v>
+        <v>10.34</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>3.08</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="O21" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.18</v>
+        <v>3.4</v>
       </c>
       <c r="W21" t="n">
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2409,80 +2409,80 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia 1929</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.25</v>
-      </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>3.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="P22" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="V22" t="n">
-        <v>3.4</v>
+        <v>1.18</v>
       </c>
       <c r="W22" t="n">
         <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="Y22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.65</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AA22" t="n">
-        <v>2.66</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="23">
@@ -2513,13 +2513,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -2534,10 +2534,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.42</v>
@@ -2604,13 +2604,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="H24" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
         <v>1.01</v>
@@ -2625,10 +2625,10 @@
         <v>6.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O24" t="n">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="P24" t="n">
         <v>1.2</v>
@@ -2695,13 +2695,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="H25" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -2716,10 +2716,10 @@
         <v>4.2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O25" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="P25" t="n">
         <v>1.3</v>
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3.42</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -2807,10 +2807,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O26" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="P26" t="n">
         <v>1.3</v>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.57</v>
       </c>
       <c r="I27" t="n">
         <v>3.75</v>
@@ -2898,10 +2898,10 @@
         <v>4.2</v>
       </c>
       <c r="N27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O27" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P27" t="n">
         <v>1.31</v>
@@ -2968,13 +2968,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -2989,10 +2989,10 @@
         <v>4.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="O28" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P28" t="n">
         <v>1.27</v>
@@ -3059,13 +3059,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="I29" t="n">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
@@ -3080,7 +3080,7 @@
         <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O29" t="n">
         <v>2.1</v>
@@ -3153,10 +3153,10 @@
         <v>3.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
@@ -3171,10 +3171,10 @@
         <v>2.8</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P30" t="n">
         <v>1.5</v>
@@ -3216,7 +3216,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Iceland Úrvalsdeild</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3228,80 +3228,80 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Estrela Amadora</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="32">
@@ -3323,76 +3323,76 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>Keflavík</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="M32" t="n">
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
       <c r="N32" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA32" t="n">
         <v>2.65</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>3.58</v>
       </c>
     </row>
     <row r="33">
@@ -3414,76 +3414,76 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Víkingur Reykjavík</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FH</t>
+          <t>Fylkir</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I33" t="n">
-        <v>4.35</v>
+        <v>2.63</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="O33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="T33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.2</v>
       </c>
-      <c r="U33" t="n">
-        <v>1.22</v>
-      </c>
       <c r="V33" t="n">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
-        <v>2.58</v>
+        <v>1.25</v>
       </c>
       <c r="X33" t="n">
-        <v>1.25</v>
+        <v>0.82</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="34">
@@ -3505,82 +3505,82 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Keflavík</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.42</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>2.86</v>
       </c>
       <c r="J34" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M34" t="n">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="O34" t="n">
-        <v>2.25</v>
+        <v>2.44</v>
       </c>
       <c r="P34" t="n">
         <v>1.25</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="W34" t="n">
-        <v>1.55</v>
+        <v>2.27</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5</v>
+        <v>1.17</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.15</v>
+        <v>1.89</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.65</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Iceland Úrvalsdeild</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -3592,80 +3592,80 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Estrela Amadora</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="36">
@@ -3687,31 +3687,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>Víkingur Reykjavík</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fylkir</t>
+          <t>FH</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>4.14</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3720,43 +3720,43 @@
         <v>1.44</v>
       </c>
       <c r="O36" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="P36" t="n">
         <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="R36" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="S36" t="n">
-        <v>2.85</v>
+        <v>2.43</v>
       </c>
       <c r="T36" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V36" t="n">
-        <v>1.53</v>
+        <v>2.17</v>
       </c>
       <c r="W36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="X36" t="n">
         <v>1.25</v>
       </c>
-      <c r="X36" t="n">
-        <v>0.82</v>
-      </c>
       <c r="Y36" t="n">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.83</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="37">
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="J37" t="n">
         <v>1.06</v>
@@ -3808,10 +3808,10 @@
         <v>3.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O37" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>1.1</v>
@@ -3893,16 +3893,16 @@
         <v>7</v>
       </c>
       <c r="L38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M38" t="n">
         <v>2.35</v>
       </c>
       <c r="N38" t="n">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
         <v>1.57</v>
@@ -3939,6 +3939,97 @@
       </c>
       <c r="AA38" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-28_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-28_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.19</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -623,10 +623,10 @@
         <v>2.7</v>
       </c>
       <c r="N2" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
         <v>1.53</v>
@@ -650,10 +650,10 @@
         <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="Y2" t="n">
         <v>1.25</v>
@@ -696,10 +696,10 @@
         <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -714,10 +714,10 @@
         <v>2.6</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -726,10 +726,10 @@
         <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.24</v>
@@ -741,7 +741,7 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -805,10 +805,10 @@
         <v>2.71</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -832,10 +832,10 @@
         <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y4" t="n">
         <v>1.59</v>
@@ -1014,10 +1014,10 @@
         <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y6" t="n">
         <v>1.34</v>
@@ -1057,13 +1057,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>5.14</v>
+        <v>4.35</v>
       </c>
       <c r="I7" t="n">
-        <v>9.460000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1078,10 +1078,10 @@
         <v>4.8</v>
       </c>
       <c r="N7" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="P7" t="n">
         <v>1.23</v>
@@ -1105,10 +1105,10 @@
         <v>2.7</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y7" t="n">
         <v>1.61</v>
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1169,10 +1169,10 @@
         <v>2.9</v>
       </c>
       <c r="N8" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
         <v>1.47</v>
@@ -1181,10 +1181,10 @@
         <v>2.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
         <v>1.32</v>
@@ -1196,7 +1196,7 @@
         <v>1.45</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1260,10 +1260,10 @@
         <v>4.89</v>
       </c>
       <c r="N9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="P9" t="n">
         <v>1.27</v>
@@ -1287,10 +1287,10 @@
         <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="Y9" t="n">
         <v>1.51</v>
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.34</v>
+        <v>4.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1351,10 +1351,10 @@
         <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="P10" t="n">
         <v>1.28</v>
@@ -1378,10 +1378,10 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y10" t="n">
         <v>1.48</v>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1442,10 +1442,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O11" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="P11" t="n">
         <v>1.36</v>
@@ -1469,10 +1469,10 @@
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y11" t="n">
         <v>1.22</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.55</v>
       </c>
       <c r="N12" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1560,7 +1560,7 @@
         <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
         <v>1</v>
@@ -1685,76 +1685,76 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.71</v>
+        <v>1.97</v>
       </c>
       <c r="J14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.21</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="15">
@@ -1776,76 +1776,76 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.77</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.49</v>
-      </c>
       <c r="Z15" t="n">
-        <v>0.9</v>
+        <v>1.44</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.39</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="16">
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
-        <v>3.19</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.19</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
@@ -1924,10 +1924,10 @@
         <v>1.74</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X16" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="Y16" t="n">
         <v>1.34</v>
@@ -1958,82 +1958,82 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.04</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>3.22</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M17" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P17" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.33</v>
       </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>0.83</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.83</v>
+        <v>1.49</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.93</v>
+        <v>0.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.76</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2045,86 +2045,86 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.6</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K18" t="n">
-        <v>15</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.25</v>
-      </c>
       <c r="P18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.09</v>
-      </c>
       <c r="Z18" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.66</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2136,80 +2136,80 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>2.45</v>
+        <v>4.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>1.58</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.36</v>
+        <v>2.09</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.49</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="20">
@@ -2240,13 +2240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2261,10 +2261,10 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="H21" t="n">
-        <v>5.27</v>
+        <v>5.1</v>
       </c>
       <c r="I21" t="n">
-        <v>10.34</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2352,10 +2352,10 @@
         <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O21" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2379,10 +2379,10 @@
         <v>3.4</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y21" t="n">
         <v>1.65</v>
@@ -2425,10 +2425,10 @@
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -2437,16 +2437,16 @@
         <v>8.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
-        <v>3.08</v>
+        <v>2.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -2470,7 +2470,7 @@
         <v>1.18</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X22" t="n">
         <v>3</v>
@@ -2513,13 +2513,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -2534,10 +2534,10 @@
         <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="P23" t="n">
         <v>1.42</v>
@@ -2561,10 +2561,10 @@
         <v>1.57</v>
       </c>
       <c r="W23" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
         <v>1.81</v>
@@ -2604,13 +2604,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
         <v>1.01</v>
@@ -2625,10 +2625,10 @@
         <v>6.4</v>
       </c>
       <c r="N24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O24" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="P24" t="n">
         <v>1.2</v>
@@ -2652,10 +2652,10 @@
         <v>3.6</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="X24" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="Y24" t="n">
         <v>1.85</v>
@@ -2698,10 +2698,10 @@
         <v>1.15</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -2716,10 +2716,10 @@
         <v>4.2</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="O25" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P25" t="n">
         <v>1.3</v>
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="H26" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.08</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -2807,10 +2807,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="P26" t="n">
         <v>1.3</v>
@@ -2877,13 +2877,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.57</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -2968,13 +2968,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -3059,13 +3059,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="H29" t="n">
-        <v>3.32</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
@@ -3080,7 +3080,7 @@
         <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
         <v>2.1</v>
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
@@ -3171,10 +3171,10 @@
         <v>2.8</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
         <v>1.5</v>
@@ -3232,22 +3232,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Fylkir</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.34</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.51</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.02</v>
@@ -3256,16 +3256,16 @@
         <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="O31" t="n">
-        <v>2.45</v>
+        <v>2.76</v>
       </c>
       <c r="P31" t="n">
         <v>1.25</v>
@@ -3274,13 +3274,13 @@
         <v>3.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="T31" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U31" t="n">
         <v>1.2</v>
@@ -3289,19 +3289,19 @@
         <v>1.53</v>
       </c>
       <c r="W31" t="n">
-        <v>2.17</v>
+        <v>1.25</v>
       </c>
       <c r="X31" t="n">
-        <v>1.64</v>
+        <v>0.82</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="32">
@@ -3323,76 +3323,76 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Keflavík</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.46</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L32" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="M32" t="n">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="O32" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="P32" t="n">
         <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="X32" t="n">
-        <v>0.5</v>
+        <v>1.64</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.15</v>
+        <v>1.61</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="33">
@@ -3414,76 +3414,76 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fylkir</t>
+          <t>Keflavík</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.63</v>
+        <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="N33" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="O33" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="R33" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="T33" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="W33" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="X33" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.83</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="34">
@@ -3514,13 +3514,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
@@ -3535,10 +3535,10 @@
         <v>4.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O34" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="P34" t="n">
         <v>1.25</v>
@@ -3696,13 +3696,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.68</v>
+        <v>4.35</v>
       </c>
       <c r="I36" t="n">
-        <v>4.14</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
         <v>1.01</v>
@@ -3720,7 +3720,7 @@
         <v>1.44</v>
       </c>
       <c r="O36" t="n">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="P36" t="n">
         <v>1.25</v>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J37" t="n">
         <v>1.06</v>
@@ -3808,10 +3808,10 @@
         <v>3.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.1</v>
@@ -3899,10 +3899,10 @@
         <v>2.35</v>
       </c>
       <c r="N38" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
         <v>1.57</v>
@@ -3969,13 +3969,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="H39" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1.11</v>
@@ -3990,10 +3990,10 @@
         <v>2.35</v>
       </c>
       <c r="N39" t="n">
-        <v>2.69</v>
+        <v>2.47</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
         <v>1.55</v>
